--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5074542960814677</v>
+        <v>0.5814128013667214</v>
       </c>
       <c r="D2">
-        <v>0.6119027438204252</v>
+        <v>0.5668722678622609</v>
       </c>
       <c r="E2">
         <v>0.5847682544849925</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.30831640170638</v>
+        <v>1.376583167138703</v>
       </c>
       <c r="D3">
-        <v>0.1909450854231154</v>
+        <v>0.1824907262166702</v>
       </c>
       <c r="E3">
         <v>0.5847682544849925</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.580003654940457</v>
+        <v>1.691001067455943</v>
       </c>
       <c r="D4">
-        <v>0.1142943868932484</v>
+        <v>0.1049565830253625</v>
       </c>
       <c r="E4">
         <v>0.5847682544849925</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.3345482485248077</v>
+        <v>0.3765569824416972</v>
       </c>
       <c r="D5">
-        <v>0.7380076743193746</v>
+        <v>0.7101101931556548</v>
       </c>
       <c r="E5">
         <v>0.5847682544849925</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7454703130197269</v>
+        <v>0.6288778141945918</v>
       </c>
       <c r="D6">
-        <v>0.4560917952188184</v>
+        <v>0.5359047978319764</v>
       </c>
       <c r="E6">
         <v>0.5756334764880453</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.9420059419356781</v>
+        <v>0.8939663943343991</v>
       </c>
       <c r="D7">
-        <v>0.346325113036672</v>
+        <v>0.3810158041978626</v>
       </c>
       <c r="E7">
         <v>0.5756334764880453</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.2233416277896091</v>
+        <v>-0.1891148604798456</v>
       </c>
       <c r="D8">
-        <v>0.8232968001157639</v>
+        <v>0.8517366148365066</v>
       </c>
       <c r="E8">
         <v>0.5756334764880453</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.259239533620907</v>
+        <v>0.2696952561483115</v>
       </c>
       <c r="D9">
-        <v>0.7954822097997432</v>
+        <v>0.7899082369468893</v>
       </c>
       <c r="E9">
         <v>0.5617868868725036</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.079539349636207</v>
+        <v>-1.083825304400224</v>
       </c>
       <c r="D10">
-        <v>0.2805024131436418</v>
+        <v>0.2901778663374535</v>
       </c>
       <c r="E10">
         <v>0.5617868868725036</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.2674965984266</v>
+        <v>-1.196327754742788</v>
       </c>
       <c r="D11">
-        <v>0.2051535373150994</v>
+        <v>0.2443031152981359</v>
       </c>
       <c r="E11">
         <v>0.5568895046450621</v>
